--- a/EXPORT_FILES/ФП_все.xlsx
+++ b/EXPORT_FILES/ФП_все.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>код</t>
   </si>
@@ -81,76 +81,22 @@
     <t>${table:items.expulsion}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>М-1</t>
-  </si>
-  <si>
-    <t>РТО-1</t>
-  </si>
-  <si>
-    <t>РН-1</t>
-  </si>
-  <si>
-    <t>КШ-1</t>
-  </si>
-  <si>
-    <t>ВГ-8</t>
+    <t>ВГ-2</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>младший сержант</t>
-  </si>
-  <si>
-    <t>1111 1111 11111</t>
-  </si>
-  <si>
-    <t>ВОЕН Воен Воен</t>
-  </si>
-  <si>
-    <t>ЯЧС Ячс Ячс</t>
-  </si>
-  <si>
-    <t>К К К</t>
-  </si>
-  <si>
-    <t>Д Д Д</t>
-  </si>
-  <si>
-    <t>01.01.2001</t>
-  </si>
-  <si>
-    <t>22.01.2000</t>
+    <t>AS Dasd Asd</t>
   </si>
   <si>
     <t>12.03.1231</t>
-  </si>
-  <si>
-    <t>21.01.2004</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>нежел.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,144 +481,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
